--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dawid\Desktop\Palacze_WAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C01087-D69B-4738-A5C0-DCD0447AA107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27837514-3A46-4BE0-A9DA-A2260F610C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,16 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Structure" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v5.0" hidden="1">Data!$A$1</definedName>
+    <definedName name="_xlchart.v5.1" hidden="1">Data!$A$2:$A$33</definedName>
+    <definedName name="_xlchart.v5.2" hidden="1">Data!$B$1</definedName>
+    <definedName name="_xlchart.v5.3" hidden="1">Data!$B$2:$B$33</definedName>
+    <definedName name="_xlchart.v5.4" hidden="1">Data!$A$1</definedName>
+    <definedName name="_xlchart.v5.5" hidden="1">Data!$A$2:$A$33</definedName>
+    <definedName name="_xlchart.v5.6" hidden="1">Data!$B$1</definedName>
+    <definedName name="_xlchart.v5.7" hidden="1">Data!$B$2:$B$33</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
-  <si>
-    <t>SMOKING (Labels)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
   <si>
     <t>Total</t>
   </si>
@@ -254,6 +261,12 @@
   </si>
   <si>
     <t>2019</t>
+  </si>
+  <si>
+    <t>European Union</t>
+  </si>
+  <si>
+    <t>Countries</t>
   </si>
 </sst>
 </file>
@@ -705,7 +718,7 @@
   <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -727,84 +740,84 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3">
         <v>18.399999999999999</v>
@@ -881,7 +894,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3">
         <v>14.6</v>
@@ -959,7 +972,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="7">
         <v>28.7</v>
@@ -1036,7 +1049,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3">
         <v>19.3</v>
@@ -1113,7 +1126,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="7">
         <v>11.7</v>
@@ -1190,7 +1203,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3">
         <v>21.9</v>
@@ -1267,7 +1280,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="7">
         <v>18.899999999999999</v>
@@ -1344,7 +1357,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3">
         <v>13.8</v>
@@ -1421,7 +1434,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="7">
         <v>23.6</v>
@@ -1498,7 +1511,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3">
         <v>19.7</v>
@@ -1575,7 +1588,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="7">
         <v>17.8</v>
@@ -1652,7 +1665,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3">
         <v>21.8</v>
@@ -1729,7 +1742,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="7">
         <v>16.5</v>
@@ -1806,7 +1819,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3">
         <v>21.2</v>
@@ -1883,7 +1896,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="7">
         <v>22.1</v>
@@ -1960,7 +1973,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3">
         <v>18.399999999999999</v>
@@ -2037,7 +2050,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="7">
         <v>10.5</v>
@@ -2114,7 +2127,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="3">
         <v>19.3</v>
@@ -2191,7 +2204,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="7">
         <v>19.399999999999999</v>
@@ -2268,7 +2281,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="3">
         <v>14.6</v>
@@ -2345,7 +2358,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="7">
         <v>20.2</v>
@@ -2422,7 +2435,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="3">
         <v>18.399999999999999</v>
@@ -2499,7 +2512,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="7">
         <v>11.5</v>
@@ -2576,7 +2589,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="3">
         <v>18.7</v>
@@ -2653,7 +2666,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="7">
         <v>16.600000000000001</v>
@@ -2730,7 +2743,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="3">
         <v>20.399999999999999</v>
@@ -2807,7 +2820,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="7">
         <v>9.9</v>
@@ -2884,7 +2897,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="3">
         <v>6.4</v>
@@ -2961,7 +2974,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="7">
         <v>7.5</v>
@@ -3038,7 +3051,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="3">
         <v>10.199999999999999</v>
@@ -3115,7 +3128,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="3">
         <v>26.2</v>
@@ -3186,7 +3199,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="7">
         <v>27.3</v>
@@ -3277,7 +3290,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3285,586 +3298,586 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
       <c r="B16" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
       <c r="B18" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
       <c r="B21" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="13"/>
       <c r="B22" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="13"/>
       <c r="B23" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="13"/>
       <c r="B24" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
       <c r="B25" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
       <c r="B26" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="13"/>
       <c r="B27" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
       <c r="B28" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="13"/>
       <c r="B29" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
       <c r="B30" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="13"/>
       <c r="B32" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="13"/>
       <c r="B33" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
       <c r="B34" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
       <c r="B36" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
       <c r="B37" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="13"/>
       <c r="B38" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
       <c r="B40" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="13"/>
       <c r="B41" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
       <c r="B42" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B43" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B44" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B45" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B46" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B47" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B48" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dawid\Desktop\Palacze_WAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27837514-3A46-4BE0-A9DA-A2260F610C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E137A69-7808-4751-869B-0C7D089F7956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,6 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Structure" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v5.0" hidden="1">Data!$A$1</definedName>
-    <definedName name="_xlchart.v5.1" hidden="1">Data!$A$2:$A$33</definedName>
-    <definedName name="_xlchart.v5.2" hidden="1">Data!$B$1</definedName>
-    <definedName name="_xlchart.v5.3" hidden="1">Data!$B$2:$B$33</definedName>
-    <definedName name="_xlchart.v5.4" hidden="1">Data!$A$1</definedName>
-    <definedName name="_xlchart.v5.5" hidden="1">Data!$A$2:$A$33</definedName>
-    <definedName name="_xlchart.v5.6" hidden="1">Data!$B$1</definedName>
-    <definedName name="_xlchart.v5.7" hidden="1">Data!$B$2:$B$33</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -266,7 +256,7 @@
     <t>European Union</t>
   </si>
   <si>
-    <t>Countries</t>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -718,7 +708,7 @@
   <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dawid\Desktop\Palacze_WAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dawid\Studia\Magisterskie\Semestr_01\Wielowymiarowa analiza danych\Projekt\Palacze_WAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E137A69-7808-4751-869B-0C7D089F7956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00249B5F-40D9-44D5-BEBD-02452F66FBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="101">
   <si>
     <t>Total</t>
   </si>
@@ -257,6 +257,78 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>X13</t>
+  </si>
+  <si>
+    <t>X14</t>
+  </si>
+  <si>
+    <t>X15</t>
+  </si>
+  <si>
+    <t>X16</t>
+  </si>
+  <si>
+    <t>X17</t>
+  </si>
+  <si>
+    <t>X18</t>
+  </si>
+  <si>
+    <t>X19</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>X21</t>
+  </si>
+  <si>
+    <t>X22</t>
+  </si>
+  <si>
+    <t>X23</t>
+  </si>
+  <si>
+    <t>X24</t>
   </si>
 </sst>
 </file>
@@ -267,7 +339,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.##########"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +381,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -708,14 +786,14 @@
   <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
@@ -733,76 +811,76 @@
         <v>76</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
+        <v>78</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>4</v>
+        <v>80</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>8</v>
+        <v>84</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>10</v>
+        <v>86</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>12</v>
+        <v>88</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>16</v>
+        <v>92</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>18</v>
+        <v>94</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>20</v>
+        <v>96</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>22</v>
+        <v>98</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
@@ -3259,6 +3337,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dawid\Studia\Magisterskie\Semestr_01\Wielowymiarowa analiza danych\Projekt\Palacze_WAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dawid\Studia\Magisterskie\Semestr_01\Wielowymiarowa analiza danych\Projekt_01\Palacze_WAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00249B5F-40D9-44D5-BEBD-02452F66FBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B180E64A-3AF8-4AEC-A410-FCDF18FFBE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,82 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="101">
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Less than 20 cigarettes per day</t>
-  </si>
-  <si>
-    <t>20 or more cigarettes per day</t>
-  </si>
-  <si>
-    <t>Cities</t>
-  </si>
-  <si>
-    <t>Towns and suburbs</t>
-  </si>
-  <si>
-    <t>Rural areas</t>
-  </si>
-  <si>
-    <t>Males</t>
-  </si>
-  <si>
-    <t>Females</t>
-  </si>
-  <si>
-    <t>From 15 to 19 years</t>
-  </si>
-  <si>
-    <t>From 15 to 24 years</t>
-  </si>
-  <si>
-    <t>From 15 to 29 years</t>
-  </si>
-  <si>
-    <t>From 15 to 64 years</t>
-  </si>
-  <si>
-    <t>From 18 to 24 years</t>
-  </si>
-  <si>
-    <t>18 years or over</t>
-  </si>
-  <si>
-    <t>From 20 to 24 years</t>
-  </si>
-  <si>
-    <t>From 25 to 29 years</t>
-  </si>
-  <si>
-    <t>From 25 to 34 years</t>
-  </si>
-  <si>
-    <t>From 35 to 44 years</t>
-  </si>
-  <si>
-    <t>From 45 to 54 years</t>
-  </si>
-  <si>
-    <t>From 45 to 64 years</t>
-  </si>
-  <si>
-    <t>From 55 to 64 years</t>
-  </si>
-  <si>
-    <t>From 65 to 74 years</t>
-  </si>
-  <si>
-    <t>65 years or over</t>
-  </si>
-  <si>
-    <t>75 years or over</t>
-  </si>
-  <si>
-    <t>European Union - 27 countries (from 2020)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Belgium</t>
   </si>
@@ -199,54 +124,6 @@
     <t>Structure</t>
   </si>
   <si>
-    <t>Dimension</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Time frequency</t>
-  </si>
-  <si>
-    <t>Annual</t>
-  </si>
-  <si>
-    <t>Smoking behaviour</t>
-  </si>
-  <si>
-    <t>Degree of urbanisation</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Age class</t>
-  </si>
-  <si>
-    <t>From 15 to 44 years</t>
-  </si>
-  <si>
-    <t>From 18 to 44 years</t>
-  </si>
-  <si>
-    <t>From 18 to 64 years</t>
-  </si>
-  <si>
-    <t>From 25 to 64 years</t>
-  </si>
-  <si>
-    <t>Unit of measure</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>Geopolitical entity (reporting)</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -329,6 +206,78 @@
   </si>
   <si>
     <t>X24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X1 - procent palących w danym kraju [%] </t>
+  </si>
+  <si>
+    <t>X2 - procent palących mniej niż 20 papierosów na dzień [%]</t>
+  </si>
+  <si>
+    <t>X3 - procent palących więcej niż 20 papierosów na dzień [%]</t>
+  </si>
+  <si>
+    <t>X4 - procent palących zamieszkujących tereny metropolii miejskich [%]</t>
+  </si>
+  <si>
+    <t>X5 - procent palących zamieszkujących tereny małych miast [%]</t>
+  </si>
+  <si>
+    <t>X6 - procent palących zamieszkujących tereny wiejskie [%]</t>
+  </si>
+  <si>
+    <t>X7 - procent palących mężczyzn [%]</t>
+  </si>
+  <si>
+    <t>X8 - procent palących kobiet [%]</t>
+  </si>
+  <si>
+    <t>X9 - procent palących z przedziału wiekowego 15 - 19 lat [%]</t>
+  </si>
+  <si>
+    <t>X10 - procent palących z przedziału wiekowego 15 - 24 lata [%]</t>
+  </si>
+  <si>
+    <t>X11 - procent palących z przedziału wiekowego 15 - 29 lat [%]</t>
+  </si>
+  <si>
+    <t>X12 - procent palących z przedziału wiekowego 15 - 64 lata [%]</t>
+  </si>
+  <si>
+    <t>X13 - procent palących z przedziału wiekowego 18 - 24 lata [%]</t>
+  </si>
+  <si>
+    <t>X14 - procent palących posiadających co najmniej 18 lat. [%]</t>
+  </si>
+  <si>
+    <t>X15 - procent palących z przedziału wiekowego  20 - 24 lata [%]</t>
+  </si>
+  <si>
+    <t>X16 - procent palących z przedziału wiekowego 25 - 29 lata [%]</t>
+  </si>
+  <si>
+    <t>X17 - procent palących z przedziału wiekowego 25 - 34 lata [%]</t>
+  </si>
+  <si>
+    <t>X18 - procent palących z przedziału wiekowego 35 - 44 lata [%]</t>
+  </si>
+  <si>
+    <t>X19 - procent palących z przedziału wiekowego 45 - 54 lata [%]</t>
+  </si>
+  <si>
+    <t>X20 - procent palących z przedziału wiekowego 45 - 64 lata [%]</t>
+  </si>
+  <si>
+    <t>X21 - procent palących z przedziału wiekowego 55 - 64 lata [%]</t>
+  </si>
+  <si>
+    <t>X22 - procent palących z przedziału wiekowego 65 - 74 lata [%]</t>
+  </si>
+  <si>
+    <t>X23 - procent palących posiadających co najmniej 65 lat [%]</t>
+  </si>
+  <si>
+    <t>X24 - procent palących posiadających co najmniej 75 lat [%]</t>
   </si>
 </sst>
 </file>
@@ -786,7 +735,7 @@
   <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -808,84 +757,84 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3">
         <v>18.399999999999999</v>
@@ -962,7 +911,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3">
         <v>14.6</v>
@@ -1040,7 +989,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B4" s="7">
         <v>28.7</v>
@@ -1117,7 +1066,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>19.3</v>
@@ -1194,7 +1143,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B6" s="7">
         <v>11.7</v>
@@ -1271,7 +1220,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
         <v>21.9</v>
@@ -1348,7 +1297,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7">
         <v>18.899999999999999</v>
@@ -1425,7 +1374,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>13.8</v>
@@ -1502,7 +1451,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B10" s="7">
         <v>23.6</v>
@@ -1579,7 +1528,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3">
         <v>19.7</v>
@@ -1656,7 +1605,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B12" s="7">
         <v>17.8</v>
@@ -1733,7 +1682,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
         <v>21.8</v>
@@ -1810,7 +1759,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B14" s="7">
         <v>16.5</v>
@@ -1887,7 +1836,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3">
         <v>21.2</v>
@@ -1964,7 +1913,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B16" s="7">
         <v>22.1</v>
@@ -2041,7 +1990,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3">
         <v>18.399999999999999</v>
@@ -2118,7 +2067,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B18" s="7">
         <v>10.5</v>
@@ -2195,7 +2144,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3">
         <v>19.3</v>
@@ -2272,7 +2221,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B20" s="7">
         <v>19.399999999999999</v>
@@ -2349,7 +2298,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3">
         <v>14.6</v>
@@ -2426,7 +2375,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B22" s="7">
         <v>20.2</v>
@@ -2503,7 +2452,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3">
         <v>18.399999999999999</v>
@@ -2580,7 +2529,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B24" s="7">
         <v>11.5</v>
@@ -2657,7 +2606,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3">
         <v>18.7</v>
@@ -2734,7 +2683,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B26" s="7">
         <v>16.600000000000001</v>
@@ -2811,7 +2760,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3">
         <v>20.399999999999999</v>
@@ -2888,7 +2837,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B28" s="7">
         <v>9.9</v>
@@ -2965,7 +2914,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B29" s="3">
         <v>6.4</v>
@@ -3042,7 +2991,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B30" s="7">
         <v>7.5</v>
@@ -3119,7 +3068,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3">
         <v>10.199999999999999</v>
@@ -3196,7 +3145,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3">
         <v>26.2</v>
@@ -3267,7 +3216,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B33" s="7">
         <v>27.3</v>
@@ -3345,10 +3294,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6B7C99-5A01-41D1-815E-5550E625D3A4}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3359,595 +3308,235 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>58</v>
-      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
-      <c r="B3" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
-      <c r="B4" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
-      <c r="B5" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
-      <c r="B6" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
-      <c r="B7" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>2</v>
-      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
-      <c r="B8" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>0</v>
-      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
-      <c r="B9" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>3</v>
-      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
-      <c r="B10" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
-      <c r="B11" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>5</v>
-      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
-      <c r="B12" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
-      <c r="B13" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
-      <c r="B14" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>7</v>
-      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
-      <c r="B15" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>0</v>
-      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
-      <c r="B16" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>8</v>
-      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
-      <c r="B17" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
-      <c r="B18" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>10</v>
-      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
-      <c r="B19" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>66</v>
-      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
-      <c r="B20" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
-      <c r="B21" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>12</v>
-      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="13"/>
-      <c r="B22" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>67</v>
-      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="13"/>
-      <c r="B23" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>68</v>
-      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="13"/>
-      <c r="B24" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>13</v>
-      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
-      <c r="B25" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
       <c r="B26" s="17" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="13"/>
-      <c r="B27" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
-      <c r="B28" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="13"/>
-      <c r="B29" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
-      <c r="B30" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
-      <c r="B31" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="13"/>
-      <c r="B32" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="13"/>
-      <c r="B33" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
-      <c r="B34" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
-      <c r="B35" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
-      <c r="B36" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
-      <c r="B37" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="13"/>
-      <c r="B38" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
-      <c r="B39" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
-      <c r="B40" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="13"/>
-      <c r="B41" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
-      <c r="B42" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B48" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B49" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B50" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B52" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B53" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B54" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B55" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B56" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B57" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B58" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B59" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B60" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B61" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B62" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B63" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B64" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B65" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B66" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B67" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B68" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B69" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>74</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
